--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\Downloads\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2D436-8DE8-41D5-9170-1CF30E12B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2E5A2-8EBE-44ED-81B1-782CA1A3BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -8621,8 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9017,7 +9017,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>123</v>
@@ -9056,7 +9056,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>123</v>
@@ -9095,7 +9095,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>123</v>
@@ -9134,7 +9134,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>123</v>
@@ -9173,7 +9173,7 @@
         <v>74</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I14" s="56" t="s">
         <v>123</v>
@@ -9251,7 +9251,7 @@
         <v>318</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>74</v>
@@ -14491,7 +14491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -16501,7 +16501,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21547,6 +21547,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -21554,15 +21563,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21585,6 +21585,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -21592,12 +21600,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\Downloads\Test data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2E5A2-8EBE-44ED-81B1-782CA1A3BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0562D-0A9B-48CC-9506-DFF32C22760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="671">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1540,6 +1540,9 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t>Background Check Appeal or Exemption</t>
   </si>
   <si>
     <t>APPROVAL_SUPERVISOR</t>
@@ -2081,9 +2084,6 @@
   </si>
   <si>
     <t>Residential/Home</t>
-  </si>
-  <si>
-    <t>testT2902</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3142,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:XFD6"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3350,7 +3350,7 @@
         <v>214</v>
       </c>
       <c r="AK1" s="37" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>215</v>
@@ -3536,7 +3536,7 @@
         <v>333</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CV1" s="8" t="s">
         <v>271</v>
@@ -4943,7 +4943,7 @@
         <v>74</v>
       </c>
       <c r="U8" s="72" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="V8" s="29" t="s">
         <v>74</v>
@@ -6336,7 +6336,7 @@
         <v>74</v>
       </c>
       <c r="T13" s="51" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="U13" s="51" t="s">
         <v>74</v>
@@ -6354,7 +6354,7 @@
         <v>97818</v>
       </c>
       <c r="Z13" s="51" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA13" s="51" t="s">
         <v>74</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="14" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -6616,7 +6616,7 @@
         <v>78</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>121</v>
@@ -6640,10 +6640,10 @@
         <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>298</v>
@@ -6655,7 +6655,7 @@
         <v>74</v>
       </c>
       <c r="U14" s="70" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>74</v>
@@ -6673,7 +6673,7 @@
         <v>74</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AB14" s="8" t="s">
         <v>121</v>
@@ -7047,7 +7047,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="U14" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
-    <hyperlink ref="U8" r:id="rId2" xr:uid="{B97B87C1-3515-44B3-BFBD-FBDBA976CC3B}"/>
+    <hyperlink ref="U8" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -7058,8 +7058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7103,7 +7103,7 @@
         <v>286</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>107</v>
@@ -7130,7 +7130,7 @@
         <v>292</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>225</v>
@@ -7142,10 +7142,10 @@
         <v>295</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7378,7 +7378,7 @@
         <v>124</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7413,7 +7413,7 @@
         <v>124</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7448,7 +7448,7 @@
         <v>124</v>
       </c>
       <c r="K10" s="57" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7483,7 +7483,7 @@
         <v>124</v>
       </c>
       <c r="K11" s="57" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
@@ -7626,50 +7626,37 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="27">
         <v>1</v>
       </c>
       <c r="C16" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>123</v>
+      <c r="H16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
@@ -7679,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>298</v>
@@ -7724,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>298</v>
@@ -7769,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>298</v>
@@ -7806,37 +7793,50 @@
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="27">
         <v>1</v>
       </c>
       <c r="C20" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>74</v>
+      <c r="H20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="J20" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>299</v>
       </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
     </row>
     <row r="21" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
@@ -8404,7 +8404,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E33" t="s">
         <v>298</v>
@@ -8533,10 +8533,10 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -8564,7 +8564,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8621,8 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8675,13 +8675,13 @@
         <v>317</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8716,13 +8716,13 @@
         <v>123</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L2" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8757,7 +8757,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>123</v>
@@ -8795,7 +8795,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>123</v>
@@ -8833,7 +8833,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>123</v>
@@ -8871,13 +8871,13 @@
         <v>123</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L6" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8912,7 +8912,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>123</v>
@@ -8950,7 +8950,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L8" s="45" t="s">
         <v>123</v>
@@ -8988,7 +8988,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L9" s="45" t="s">
         <v>123</v>
@@ -9017,7 +9017,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>123</v>
@@ -9026,7 +9026,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L10" s="45" t="s">
         <v>123</v>
@@ -9056,7 +9056,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>123</v>
@@ -9065,7 +9065,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L11" s="45" t="s">
         <v>123</v>
@@ -9095,7 +9095,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>123</v>
@@ -9104,7 +9104,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L12" s="45" t="s">
         <v>123</v>
@@ -9134,7 +9134,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>123</v>
@@ -9143,7 +9143,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L13" s="45" t="s">
         <v>123</v>
@@ -9173,7 +9173,7 @@
         <v>74</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="I14" s="56" t="s">
         <v>123</v>
@@ -9182,7 +9182,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L14" s="45" t="s">
         <v>123</v>
@@ -9221,7 +9221,7 @@
         <v>74</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>123</v>
@@ -9251,7 +9251,7 @@
         <v>318</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>74</v>
@@ -9260,7 +9260,7 @@
         <v>74</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>123</v>
@@ -9292,7 +9292,7 @@
         <v>74</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>123</v>
@@ -9301,7 +9301,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L17" s="27" t="s">
         <v>123</v>
@@ -9330,7 +9330,7 @@
         <v>74</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I18" s="27" t="s">
         <v>123</v>
@@ -9339,7 +9339,7 @@
         <v>123</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>123</v>
@@ -9368,7 +9368,7 @@
         <v>74</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I19" s="27" t="s">
         <v>123</v>
@@ -9377,7 +9377,7 @@
         <v>123</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>123</v>
@@ -9406,7 +9406,7 @@
         <v>74</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I20" s="27" t="s">
         <v>123</v>
@@ -9415,7 +9415,7 @@
         <v>123</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L20" s="27" t="s">
         <v>123</v>
@@ -9444,7 +9444,7 @@
         <v>318</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>74</v>
@@ -9453,7 +9453,7 @@
         <v>74</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>123</v>
@@ -9491,7 +9491,7 @@
         <v>74</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L22" s="27" t="s">
         <v>123</v>
@@ -9515,10 +9515,10 @@
         <v>123</v>
       </c>
       <c r="G23" s="73" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="I23" s="73" t="s">
         <v>123</v>
@@ -9527,7 +9527,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L23" s="73" t="s">
         <v>123</v>
@@ -9551,10 +9551,10 @@
         <v>123</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="H24" s="73" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="I24" s="73" t="s">
         <v>123</v>
@@ -9563,7 +9563,7 @@
         <v>123</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L24" s="73" t="s">
         <v>123</v>
@@ -9601,14 +9601,14 @@
         <v>123</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L25" s="45" t="s">
         <v>123</v>
       </c>
       <c r="M25" s="45"/>
       <c r="N25" s="27" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -9643,7 +9643,7 @@
         <v>123</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L26" s="45" t="s">
         <v>123</v>
@@ -9682,14 +9682,14 @@
         <v>123</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L27" s="45" t="s">
         <v>123</v>
       </c>
       <c r="M27" s="45"/>
       <c r="N27" s="27" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -9724,7 +9724,7 @@
         <v>123</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L28" s="45" t="s">
         <v>123</v>
@@ -9763,13 +9763,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L29" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -9804,7 +9804,7 @@
         <v>123</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>123</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -9842,7 +9842,7 @@
         <v>489</v>
       </c>
       <c r="K31" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L31" t="s">
         <v>74</v>
@@ -9860,7 +9860,7 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9894,7 +9894,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>324</v>
@@ -9906,7 +9906,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -10032,7 +10032,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F4" s="80" t="s">
         <v>68</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10165,7 +10165,7 @@
         <v>74</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -10230,22 +10230,22 @@
         <v>74</v>
       </c>
       <c r="E7" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>669</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>668</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>123</v>
@@ -10320,7 +10320,7 @@
         <v>105</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>340</v>
@@ -10415,7 +10415,7 @@
         <v>360</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>279</v>
@@ -10507,7 +10507,7 @@
         <v>360</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>279</v>
@@ -10599,7 +10599,7 @@
         <v>360</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>279</v>
@@ -10684,7 +10684,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11436,10 +11436,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BO28"/>
+  <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11795,7 +11795,7 @@
         <v>479</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L3" s="52" t="s">
         <v>74</v>
@@ -11819,7 +11819,7 @@
         <v>123</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T3" s="52"/>
       <c r="U3" s="52"/>
@@ -11904,10 +11904,10 @@
         <v>279</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>74</v>
@@ -11931,7 +11931,7 @@
         <v>123</v>
       </c>
       <c r="S4" s="47" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T4" s="52"/>
       <c r="U4" s="52"/>
@@ -12016,10 +12016,10 @@
         <v>279</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>74</v>
@@ -12043,7 +12043,7 @@
         <v>123</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
@@ -12128,10 +12128,10 @@
         <v>279</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>74</v>
@@ -12155,7 +12155,7 @@
         <v>123</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T6" s="52"/>
       <c r="U6" s="52"/>
@@ -12211,1337 +12211,1258 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43">
+        <v>2</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW7" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF7" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO7" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF8" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="78">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>478</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="M9" s="78" t="s">
+        <v>480</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="P9" s="78" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q9" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="T9" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" s="78"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX9" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE9" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF9" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW10" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO10" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO11" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO12" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G13" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H13" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J13" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="29" t="s">
+      <c r="K13" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="P13" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="P7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV7" s="29" t="s">
+      <c r="Q13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AW7" s="29" t="s">
+      <c r="AX13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AX7" s="29" t="s">
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AY7" s="29" t="s">
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AZ7" s="29"/>
-      <c r="BA7" s="29" t="s">
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BB7" s="29"/>
-      <c r="BC7" s="29" t="s">
+      <c r="BE13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BD7" s="29" t="s">
+      <c r="BF13" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BE7" s="29" t="s">
+    </row>
+    <row r="14" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BF7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN7" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>670</v>
-      </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
-        <v>2</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW8" s="29" t="s">
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="29" t="s">
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29" t="s">
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29" t="s">
+      <c r="BE14" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="BD8" s="29" t="s">
+      <c r="BF14" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="BE8" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="43">
-        <v>2</v>
-      </c>
-      <c r="C9" s="43">
-        <v>1</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>477</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>478</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>614</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="P9" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="47" t="s">
-        <v>616</v>
-      </c>
-      <c r="T9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="V9" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA9" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW9" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX9" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY9" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ9" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE9" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF9" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="BG9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO9" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF10" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:67" s="73" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="78">
-        <v>1</v>
-      </c>
-      <c r="C11" s="78">
-        <v>1</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>477</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>478</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>479</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>483</v>
-      </c>
-      <c r="M11" s="78" t="s">
-        <v>480</v>
-      </c>
-      <c r="N11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="P11" s="78" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>616</v>
-      </c>
-      <c r="T11" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="78"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX11" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE11" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF11" s="78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW12" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF12" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="BG12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO12" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO13" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO14" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
@@ -13570,7 +13491,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="10"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -13594,7 +13515,7 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
@@ -13690,7 +13611,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="10"/>
+      <c r="Z17" s="11"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -13750,7 +13671,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="11"/>
+      <c r="Z18" s="10"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -13870,7 +13791,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="10"/>
+      <c r="Z20" s="11"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -13930,7 +13851,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="11"/>
+      <c r="Z21" s="10"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -14050,7 +13971,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="10"/>
+      <c r="Z23" s="11"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -14264,126 +14185,6 @@
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
-    <row r="27" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-    </row>
-    <row r="28" spans="1:58" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14492,7 +14293,7 @@
   <dimension ref="A1:AX23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14555,7 +14356,7 @@
         <v>423</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>424</v>
@@ -14579,10 +14380,10 @@
         <v>26</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>431</v>
@@ -14591,13 +14392,13 @@
         <v>107</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>420</v>
@@ -14663,7 +14464,7 @@
         <v>337</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AQ1" s="8" t="s">
         <v>271</v>
@@ -14683,7 +14484,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>477</v>
@@ -14701,7 +14502,7 @@
         <v>489</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>279</v>
@@ -14723,10 +14524,10 @@
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U2" s="29" t="s">
         <v>123</v>
@@ -14812,7 +14613,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>477</v>
@@ -14830,7 +14631,7 @@
         <v>489</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>279</v>
@@ -14852,10 +14653,10 @@
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T3" s="43" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U3" s="43" t="s">
         <v>123</v>
@@ -14941,7 +14742,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>477</v>
@@ -14959,7 +14760,7 @@
         <v>489</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>279</v>
@@ -15049,7 +14850,7 @@
         <v>124</v>
       </c>
       <c r="AQ4" s="46" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -15066,7 +14867,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>477</v>
@@ -15084,7 +14885,7 @@
         <v>489</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>279</v>
@@ -15191,7 +14992,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>477</v>
@@ -15209,7 +15010,7 @@
         <v>489</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>279</v>
@@ -15299,7 +15100,7 @@
         <v>124</v>
       </c>
       <c r="AQ6" s="46" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
@@ -15437,7 +15238,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>477</v>
@@ -15449,10 +15250,10 @@
         <v>78</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K8" s="57" t="s">
         <v>102</v>
@@ -15518,7 +15319,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>613</v>
+        <v>492</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>477</v>
@@ -15530,10 +15331,10 @@
         <v>78</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K9" s="57" t="s">
         <v>102</v>
@@ -15602,7 +15403,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F10" s="78" t="s">
         <v>477</v>
@@ -15687,7 +15488,7 @@
         <v>123</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>477</v>
@@ -15705,7 +15506,7 @@
         <v>489</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>279</v>
@@ -15727,10 +15528,10 @@
       </c>
       <c r="R11" s="29"/>
       <c r="S11" s="29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U11" s="29" t="s">
         <v>123</v>
@@ -15823,7 +15624,7 @@
         <v>123</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>477</v>
@@ -15841,7 +15642,7 @@
         <v>489</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L12" s="43" t="s">
         <v>279</v>
@@ -15863,10 +15664,10 @@
       </c>
       <c r="R12" s="43"/>
       <c r="S12" s="43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U12" s="43" t="s">
         <v>123</v>
@@ -15940,7 +15741,7 @@
     </row>
     <row r="13" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -15952,10 +15753,10 @@
         <v>123</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>478</v>
@@ -16501,7 +16302,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16532,40 +16333,40 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L1" t="s">
         <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -16585,7 +16386,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>74</v>
@@ -16632,7 +16433,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>74</v>
@@ -16679,7 +16480,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>74</v>
@@ -16726,7 +16527,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>74</v>
@@ -16770,7 +16571,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>74</v>
@@ -16809,10 +16610,10 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>74</v>
@@ -16844,10 +16645,10 @@
         <v>123</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>74</v>
@@ -16888,10 +16689,10 @@
         <v>123</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>121</v>
@@ -16911,7 +16712,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -16926,19 +16727,19 @@
         <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>103</v>
@@ -16963,10 +16764,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17000,67 +16801,67 @@
         <v>10</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K1" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>587</v>
-      </c>
       <c r="M1" s="39" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="V1" s="39" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -17115,7 +16916,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>123</v>
@@ -17142,16 +16943,16 @@
         <v>123</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P3" s="57" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q3" s="57" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R3" s="57" t="s">
         <v>68</v>
@@ -17163,7 +16964,7 @@
         <v>124</v>
       </c>
       <c r="U3" s="57" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V3" s="57" t="s">
         <v>124</v>
@@ -17173,137 +16974,191 @@
       </c>
       <c r="X3" s="57"/>
     </row>
-    <row r="4" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-    </row>
-    <row r="5" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="R5" s="27" t="s">
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="R4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="W5" s="27" t="s">
+      <c r="S4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
         <v>124</v>
       </c>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="7"/>
+    <row r="6" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43">
+        <v>1</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="V6" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="7" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="43">
         <v>1</v>
@@ -17312,7 +17167,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>123</v>
@@ -17339,16 +17194,16 @@
         <v>123</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R7" s="43" t="s">
         <v>68</v>
@@ -17360,7 +17215,7 @@
         <v>124</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V7" s="43" t="s">
         <v>124</v>
@@ -17369,15 +17224,15 @@
         <v>124</v>
       </c>
       <c r="X7" s="47" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B8" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="43">
         <v>1</v>
@@ -17386,7 +17241,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>123</v>
@@ -17413,16 +17268,16 @@
         <v>123</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O8" s="43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P8" s="43" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R8" s="43" t="s">
         <v>68</v>
@@ -17434,7 +17289,7 @@
         <v>124</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V8" s="43" t="s">
         <v>124</v>
@@ -17443,7 +17298,7 @@
         <v>124</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -17451,7 +17306,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="43">
         <v>1</v>
@@ -17460,7 +17315,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>123</v>
@@ -17487,16 +17342,16 @@
         <v>123</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O9" s="43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P9" s="43" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R9" s="43" t="s">
         <v>68</v>
@@ -17508,7 +17363,7 @@
         <v>124</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V9" s="43" t="s">
         <v>124</v>
@@ -17517,81 +17372,81 @@
         <v>124</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="43">
-        <v>2</v>
-      </c>
-      <c r="C10" s="43">
-        <v>1</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>585</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>585</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>589</v>
-      </c>
-      <c r="R10" s="43" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="R10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="V10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" s="47" t="s">
-        <v>621</v>
+      <c r="S10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -17602,145 +17457,74 @@
         <v>1</v>
       </c>
       <c r="C11" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>513</v>
+        <v>121</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>124</v>
+      <c r="G11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>585</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>585</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="29" t="s">
-        <v>124</v>
+      <c r="K11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="X11" s="33" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>2</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="U12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="W12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="X12" s="33" t="s">
-        <v>121</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X13" s="1"/>
@@ -17783,9 +17567,6 @@
     </row>
     <row r="26" spans="24:24" x14ac:dyDescent="0.35">
       <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="24:24" x14ac:dyDescent="0.35">
-      <c r="X27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17823,58 +17604,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I1" t="s">
         <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="R1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="U1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -17957,46 +17738,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1" t="s">
         <v>390</v>
       </c>
       <c r="I1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18066,7 +17847,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -18116,7 +17897,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -18166,7 +17947,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>74</v>
@@ -18199,7 +17980,7 @@
         <v>121</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18219,7 +18000,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>74</v>
@@ -18252,7 +18033,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18316,7 +18097,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>74</v>
@@ -18349,7 +18130,7 @@
         <v>121</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18369,7 +18150,7 @@
         <v>123</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>74</v>
@@ -18402,7 +18183,7 @@
         <v>121</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -18414,8 +18195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18437,28 +18218,28 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J1" t="s">
         <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -18493,7 +18274,7 @@
         <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18525,10 +18306,10 @@
         <v>123</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -18561,34 +18342,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N1" t="s">
         <v>361</v>
@@ -18597,19 +18378,19 @@
         <v>362</v>
       </c>
       <c r="P1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="R1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="S1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="T1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -18626,7 +18407,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>121</v>
@@ -18688,7 +18469,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>121</v>
@@ -18769,10 +18550,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
@@ -18798,10 +18579,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18818,10 +18599,10 @@
         <v>123</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18838,10 +18619,10 @@
         <v>123</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18858,10 +18639,10 @@
         <v>123</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18878,10 +18659,10 @@
         <v>123</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18898,10 +18679,10 @@
         <v>123</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18918,10 +18699,10 @@
         <v>123</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18938,10 +18719,10 @@
         <v>123</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.35">
@@ -18958,10 +18739,10 @@
         <v>123</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F10" s="81" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18978,15 +18759,15 @@
         <v>123</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -18998,10 +18779,10 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -19042,19 +18823,19 @@
         <v>344</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -19236,7 +19017,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -19302,16 +19083,16 @@
         <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -19472,7 +19253,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -19996,7 +19777,7 @@
   <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20097,10 +19878,10 @@
         <v>139</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>140</v>
@@ -20112,7 +19893,7 @@
         <v>141</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>142</v>
@@ -20240,7 +20021,7 @@
         <v>124</v>
       </c>
       <c r="AP4" s="56" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20271,7 +20052,7 @@
         <v>124</v>
       </c>
       <c r="AP5" s="56" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20300,7 +20081,7 @@
         <v>123</v>
       </c>
       <c r="T6" s="56" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y6" s="60"/>
       <c r="AF6" s="61"/>
@@ -20308,7 +20089,7 @@
         <v>124</v>
       </c>
       <c r="AP6" s="56" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20387,40 +20168,40 @@
         <v>66</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AK9" s="18" t="s">
         <v>66</v>
@@ -20429,10 +20210,10 @@
         <v>66</v>
       </c>
       <c r="AM9" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20458,7 +20239,7 @@
         <v>123</v>
       </c>
       <c r="T10" s="73" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y10" s="74"/>
     </row>
@@ -20538,13 +20319,13 @@
         <v>123</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AD13" s="34"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -20576,8 +20357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20791,7 +20572,7 @@
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
       <c r="G3" s="57" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21257,7 +21038,7 @@
         <v>121</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>121</v>
@@ -21321,8 +21102,8 @@
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="T6" r:id="rId2" xr:uid="{D4040358-CAD9-46FD-9A0A-595D44CD46FF}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{3A66DA18-74D6-460E-8063-FE02D3C74FEC}"/>
-    <hyperlink ref="T8" r:id="rId4" xr:uid="{D8BC7059-0931-49FF-A891-8663DB885327}"/>
-    <hyperlink ref="T9" r:id="rId5" xr:uid="{7B3ACD55-0963-49E8-9CA0-FA9CBF3D0968}"/>
+    <hyperlink ref="T8" r:id="rId4" xr:uid="{BAB2A804-5664-4AA4-BDBC-7044F3D835A4}"/>
+    <hyperlink ref="T9" r:id="rId5" xr:uid="{E46E3DF7-4CA2-46D2-BC7A-794B9D7BFD2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -21330,6 +21111,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -21546,26 +21346,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21582,22 +21381,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0562D-0A9B-48CC-9506-DFF32C22760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D33A2-6036-431A-A069-83E7F0A7BED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="670">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1540,9 +1540,6 @@
   </si>
   <si>
     <t> </t>
-  </si>
-  <si>
-    <t>Background Check Appeal or Exemption</t>
   </si>
   <si>
     <t>APPROVAL_SUPERVISOR</t>
@@ -3141,7 +3138,7 @@
   <dimension ref="A1:DH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3350,7 +3347,7 @@
         <v>214</v>
       </c>
       <c r="AK1" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>215</v>
@@ -3536,7 +3533,7 @@
         <v>333</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="CV1" s="8" t="s">
         <v>271</v>
@@ -4943,7 +4940,7 @@
         <v>74</v>
       </c>
       <c r="U8" s="72" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V8" s="29" t="s">
         <v>74</v>
@@ -6336,7 +6333,7 @@
         <v>74</v>
       </c>
       <c r="T13" s="51" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="U13" s="51" t="s">
         <v>74</v>
@@ -6354,7 +6351,7 @@
         <v>97818</v>
       </c>
       <c r="Z13" s="51" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA13" s="51" t="s">
         <v>74</v>
@@ -6595,7 +6592,7 @@
     </row>
     <row r="14" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -6616,34 +6613,34 @@
         <v>78</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>298</v>
@@ -6655,7 +6652,7 @@
         <v>74</v>
       </c>
       <c r="U14" s="70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>74</v>
@@ -6673,7 +6670,7 @@
         <v>74</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AB14" s="8" t="s">
         <v>121</v>
@@ -7058,7 +7055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="C26" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -7103,7 +7100,7 @@
         <v>286</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>107</v>
@@ -7130,7 +7127,7 @@
         <v>292</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>225</v>
@@ -7142,10 +7139,10 @@
         <v>295</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7378,7 +7375,7 @@
         <v>124</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7413,7 +7410,7 @@
         <v>124</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7448,7 +7445,7 @@
         <v>124</v>
       </c>
       <c r="K10" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -7483,7 +7480,7 @@
         <v>124</v>
       </c>
       <c r="K11" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.35">
@@ -8404,7 +8401,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8413,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E33" t="s">
         <v>298</v>
@@ -8477,7 +8474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A6D6C4-93D0-45E1-B221-1EAED7219C95}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -8533,10 +8530,10 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -8564,7 +8561,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8621,8 +8618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8675,13 +8672,13 @@
         <v>317</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8716,13 +8713,13 @@
         <v>123</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L2" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8757,7 +8754,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>123</v>
@@ -8795,7 +8792,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>123</v>
@@ -8833,7 +8830,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>123</v>
@@ -8871,13 +8868,13 @@
         <v>123</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L6" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -8912,7 +8909,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>123</v>
@@ -8950,7 +8947,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L8" s="45" t="s">
         <v>123</v>
@@ -8988,7 +8985,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L9" s="45" t="s">
         <v>123</v>
@@ -9017,7 +9014,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>123</v>
@@ -9026,7 +9023,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L10" s="45" t="s">
         <v>123</v>
@@ -9056,7 +9053,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>123</v>
@@ -9065,7 +9062,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L11" s="45" t="s">
         <v>123</v>
@@ -9095,7 +9092,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>123</v>
@@ -9104,7 +9101,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L12" s="45" t="s">
         <v>123</v>
@@ -9134,7 +9131,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>123</v>
@@ -9143,7 +9140,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L13" s="45" t="s">
         <v>123</v>
@@ -9173,7 +9170,7 @@
         <v>74</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I14" s="56" t="s">
         <v>123</v>
@@ -9182,7 +9179,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L14" s="45" t="s">
         <v>123</v>
@@ -9221,7 +9218,7 @@
         <v>74</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>123</v>
@@ -9251,7 +9248,7 @@
         <v>318</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>74</v>
@@ -9260,7 +9257,7 @@
         <v>74</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>123</v>
@@ -9301,7 +9298,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L17" s="27" t="s">
         <v>123</v>
@@ -9339,7 +9336,7 @@
         <v>123</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>123</v>
@@ -9377,7 +9374,7 @@
         <v>123</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>123</v>
@@ -9415,7 +9412,7 @@
         <v>123</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L20" s="27" t="s">
         <v>123</v>
@@ -9453,7 +9450,7 @@
         <v>74</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>123</v>
@@ -9491,7 +9488,7 @@
         <v>74</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L22" s="27" t="s">
         <v>123</v>
@@ -9515,10 +9512,10 @@
         <v>123</v>
       </c>
       <c r="G23" s="73" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="I23" s="73" t="s">
         <v>123</v>
@@ -9527,7 +9524,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L23" s="73" t="s">
         <v>123</v>
@@ -9551,10 +9548,10 @@
         <v>123</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="H24" s="73" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="I24" s="73" t="s">
         <v>123</v>
@@ -9563,7 +9560,7 @@
         <v>123</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L24" s="73" t="s">
         <v>123</v>
@@ -9601,14 +9598,14 @@
         <v>123</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L25" s="45" t="s">
         <v>123</v>
       </c>
       <c r="M25" s="45"/>
       <c r="N25" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -9643,7 +9640,7 @@
         <v>123</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L26" s="45" t="s">
         <v>123</v>
@@ -9682,14 +9679,14 @@
         <v>123</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L27" s="45" t="s">
         <v>123</v>
       </c>
       <c r="M27" s="45"/>
       <c r="N27" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -9724,7 +9721,7 @@
         <v>123</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L28" s="45" t="s">
         <v>123</v>
@@ -9763,13 +9760,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L29" s="45" t="s">
         <v>123</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -9804,7 +9801,7 @@
         <v>123</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>123</v>
@@ -9812,7 +9809,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -9842,7 +9839,7 @@
         <v>489</v>
       </c>
       <c r="K31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L31" t="s">
         <v>74</v>
@@ -9859,8 +9856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9894,7 +9891,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>324</v>
@@ -9906,7 +9903,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -10032,7 +10029,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F4" s="80" t="s">
         <v>68</v>
@@ -10045,6 +10042,9 @@
       </c>
       <c r="I4" s="73" t="s">
         <v>123</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>668</v>
       </c>
       <c r="K4" s="73" t="s">
         <v>123</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10165,7 +10165,7 @@
         <v>74</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -10230,7 +10230,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>74</v>
@@ -10245,7 +10245,7 @@
         <v>123</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>123</v>
@@ -10320,7 +10320,7 @@
         <v>105</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>340</v>
@@ -10415,7 +10415,7 @@
         <v>360</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>279</v>
@@ -10507,7 +10507,7 @@
         <v>360</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>279</v>
@@ -10599,7 +10599,7 @@
         <v>360</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>279</v>
@@ -10683,7 +10683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -11438,8 +11438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11795,7 +11795,7 @@
         <v>479</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L3" s="52" t="s">
         <v>74</v>
@@ -11819,7 +11819,7 @@
         <v>123</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T3" s="52"/>
       <c r="U3" s="52"/>
@@ -11904,10 +11904,10 @@
         <v>279</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>74</v>
@@ -11931,7 +11931,7 @@
         <v>123</v>
       </c>
       <c r="S4" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T4" s="52"/>
       <c r="U4" s="52"/>
@@ -12016,10 +12016,10 @@
         <v>279</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>74</v>
@@ -12043,7 +12043,7 @@
         <v>123</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
@@ -12128,10 +12128,10 @@
         <v>279</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>74</v>
@@ -12155,7 +12155,7 @@
         <v>123</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T6" s="52"/>
       <c r="U6" s="52"/>
@@ -12243,7 +12243,7 @@
         <v>479</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L7" s="43" t="s">
         <v>74</v>
@@ -12267,7 +12267,7 @@
         <v>123</v>
       </c>
       <c r="S7" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T7" s="43" t="s">
         <v>124</v>
@@ -12557,7 +12557,7 @@
         <v>102</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="M9" s="78" t="s">
         <v>480</v>
@@ -12578,7 +12578,7 @@
         <v>123</v>
       </c>
       <c r="S9" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T9" s="78" t="s">
         <v>124</v>
@@ -12668,7 +12668,7 @@
         <v>479</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L10" s="29" t="s">
         <v>74</v>
@@ -12692,7 +12692,7 @@
         <v>123</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T10" s="29" t="s">
         <v>124</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="11" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -12855,7 +12855,7 @@
         <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>478</v>
@@ -12867,7 +12867,7 @@
         <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>121</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="12" spans="1:67" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -13058,7 +13058,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>478</v>
@@ -13070,13 +13070,13 @@
         <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>489</v>
@@ -13273,7 +13273,7 @@
         <v>479</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>74</v>
@@ -13297,7 +13297,7 @@
         <v>123</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
@@ -13382,10 +13382,10 @@
         <v>279</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L14" s="29" t="s">
         <v>74</v>
@@ -13409,7 +13409,7 @@
         <v>123</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
@@ -14293,7 +14293,7 @@
   <dimension ref="A1:AX23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14356,7 +14356,7 @@
         <v>423</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>424</v>
@@ -14380,10 +14380,10 @@
         <v>26</v>
       </c>
       <c r="N1" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>609</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>610</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>431</v>
@@ -14392,13 +14392,13 @@
         <v>107</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>420</v>
@@ -14464,7 +14464,7 @@
         <v>337</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AQ1" s="8" t="s">
         <v>271</v>
@@ -14484,7 +14484,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>477</v>
@@ -14502,7 +14502,7 @@
         <v>489</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>279</v>
@@ -14524,10 +14524,10 @@
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U2" s="29" t="s">
         <v>123</v>
@@ -14613,7 +14613,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>477</v>
@@ -14631,7 +14631,7 @@
         <v>489</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>279</v>
@@ -14653,10 +14653,10 @@
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T3" s="43" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U3" s="43" t="s">
         <v>123</v>
@@ -14742,7 +14742,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>477</v>
@@ -14760,7 +14760,7 @@
         <v>489</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>279</v>
@@ -14850,7 +14850,7 @@
         <v>124</v>
       </c>
       <c r="AQ4" s="46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -14867,7 +14867,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>477</v>
@@ -14885,7 +14885,7 @@
         <v>489</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>279</v>
@@ -14992,7 +14992,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>477</v>
@@ -15010,7 +15010,7 @@
         <v>489</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>279</v>
@@ -15100,7 +15100,7 @@
         <v>124</v>
       </c>
       <c r="AQ6" s="46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
@@ -15238,7 +15238,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>477</v>
@@ -15250,10 +15250,10 @@
         <v>78</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K8" s="57" t="s">
         <v>102</v>
@@ -15319,7 +15319,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>492</v>
+        <v>613</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>477</v>
@@ -15331,10 +15331,10 @@
         <v>78</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K9" s="57" t="s">
         <v>102</v>
@@ -15403,7 +15403,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F10" s="78" t="s">
         <v>477</v>
@@ -15488,7 +15488,7 @@
         <v>123</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>477</v>
@@ -15506,7 +15506,7 @@
         <v>489</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>279</v>
@@ -15528,10 +15528,10 @@
       </c>
       <c r="R11" s="29"/>
       <c r="S11" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U11" s="29" t="s">
         <v>123</v>
@@ -15624,7 +15624,7 @@
         <v>123</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>477</v>
@@ -15642,7 +15642,7 @@
         <v>489</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L12" s="43" t="s">
         <v>279</v>
@@ -15664,10 +15664,10 @@
       </c>
       <c r="R12" s="43"/>
       <c r="S12" s="43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U12" s="43" t="s">
         <v>123</v>
@@ -15741,7 +15741,7 @@
     </row>
     <row r="13" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -15753,10 +15753,10 @@
         <v>123</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>659</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>478</v>
@@ -16301,7 +16301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -16333,40 +16333,40 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" t="s">
         <v>493</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>494</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>495</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J1" t="s">
+        <v>662</v>
+      </c>
+      <c r="K1" t="s">
         <v>496</v>
-      </c>
-      <c r="H1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J1" t="s">
-        <v>663</v>
-      </c>
-      <c r="K1" t="s">
-        <v>497</v>
       </c>
       <c r="L1" t="s">
         <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -16386,7 +16386,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>74</v>
@@ -16433,7 +16433,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>74</v>
@@ -16480,7 +16480,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>74</v>
@@ -16527,7 +16527,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>74</v>
@@ -16571,7 +16571,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>74</v>
@@ -16610,10 +16610,10 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G7" t="s">
         <v>500</v>
-      </c>
-      <c r="G7" t="s">
-        <v>501</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>74</v>
@@ -16645,10 +16645,10 @@
         <v>123</v>
       </c>
       <c r="F8" s="73" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>500</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>501</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>74</v>
@@ -16689,10 +16689,10 @@
         <v>123</v>
       </c>
       <c r="F9" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" t="s">
         <v>500</v>
-      </c>
-      <c r="G9" t="s">
-        <v>501</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>121</v>
@@ -16712,7 +16712,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -16727,19 +16727,19 @@
         <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>501</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>103</v>
@@ -16767,7 +16767,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16801,67 +16801,67 @@
         <v>10</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="K1" s="39" t="s">
-        <v>589</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>588</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>620</v>
-      </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="Q1" s="39" t="s">
-        <v>591</v>
-      </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="S1" s="39" t="s">
-        <v>513</v>
-      </c>
       <c r="T1" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="V1" s="39" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -16916,7 +16916,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>123</v>
@@ -16943,16 +16943,16 @@
         <v>123</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P3" s="57" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q3" s="57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R3" s="57" t="s">
         <v>68</v>
@@ -16964,7 +16964,7 @@
         <v>124</v>
       </c>
       <c r="U3" s="57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V3" s="57" t="s">
         <v>124</v>
@@ -16988,7 +16988,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>123</v>
@@ -17015,16 +17015,16 @@
         <v>123</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>68</v>
@@ -17036,7 +17036,7 @@
         <v>124</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V4" s="27" t="s">
         <v>124</v>
@@ -17060,7 +17060,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -17093,7 +17093,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>123</v>
@@ -17120,16 +17120,16 @@
         <v>123</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R6" s="43" t="s">
         <v>68</v>
@@ -17141,7 +17141,7 @@
         <v>124</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V6" s="43" t="s">
         <v>124</v>
@@ -17150,7 +17150,7 @@
         <v>124</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -17167,7 +17167,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>123</v>
@@ -17194,16 +17194,16 @@
         <v>123</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R7" s="43" t="s">
         <v>68</v>
@@ -17215,7 +17215,7 @@
         <v>124</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V7" s="43" t="s">
         <v>124</v>
@@ -17224,7 +17224,7 @@
         <v>124</v>
       </c>
       <c r="X7" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -17241,7 +17241,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>123</v>
@@ -17268,16 +17268,16 @@
         <v>123</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O8" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P8" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R8" s="43" t="s">
         <v>68</v>
@@ -17289,7 +17289,7 @@
         <v>124</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V8" s="43" t="s">
         <v>124</v>
@@ -17298,7 +17298,7 @@
         <v>124</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -17315,7 +17315,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>123</v>
@@ -17342,16 +17342,16 @@
         <v>123</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O9" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P9" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R9" s="43" t="s">
         <v>68</v>
@@ -17363,7 +17363,7 @@
         <v>124</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V9" s="43" t="s">
         <v>124</v>
@@ -17372,7 +17372,7 @@
         <v>124</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -17389,7 +17389,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>123</v>
@@ -17416,16 +17416,16 @@
         <v>123</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>68</v>
@@ -17437,7 +17437,7 @@
         <v>124</v>
       </c>
       <c r="U10" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V10" s="29" t="s">
         <v>124</v>
@@ -17446,7 +17446,7 @@
         <v>124</v>
       </c>
       <c r="X10" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -17523,8 +17523,77 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X12" s="1"/>
+    <row r="12" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="78">
+        <v>1</v>
+      </c>
+      <c r="C12" s="78">
+        <v>1</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q12" s="78" t="s">
+        <v>589</v>
+      </c>
+      <c r="R12" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" s="78" t="s">
+        <v>623</v>
+      </c>
+      <c r="V12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="78"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X13" s="1"/>
@@ -17604,58 +17673,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" t="s">
         <v>516</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>517</v>
-      </c>
-      <c r="H1" t="s">
-        <v>518</v>
       </c>
       <c r="I1" t="s">
         <v>343</v>
       </c>
       <c r="J1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K1" t="s">
         <v>519</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>520</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>521</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>522</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>523</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q1" t="s">
         <v>524</v>
       </c>
-      <c r="P1" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>525</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>526</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>527</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>528</v>
-      </c>
-      <c r="U1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -17738,46 +17807,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" t="s">
         <v>532</v>
-      </c>
-      <c r="G1" t="s">
-        <v>533</v>
       </c>
       <c r="H1" t="s">
         <v>390</v>
       </c>
       <c r="I1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1" t="s">
         <v>534</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>535</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>536</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>537</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>538</v>
-      </c>
-      <c r="N1" t="s">
-        <v>539</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q1" s="36" t="s">
         <v>540</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17847,7 +17916,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -17897,7 +17966,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -17947,7 +18016,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>74</v>
@@ -17980,7 +18049,7 @@
         <v>121</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18000,7 +18069,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>74</v>
@@ -18033,7 +18102,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18097,7 +18166,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>74</v>
@@ -18130,7 +18199,7 @@
         <v>121</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18150,7 +18219,7 @@
         <v>123</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>74</v>
@@ -18183,7 +18252,7 @@
         <v>121</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -18195,7 +18264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -18218,28 +18287,28 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1" t="s">
         <v>543</v>
       </c>
-      <c r="F1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>544</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>545</v>
-      </c>
-      <c r="I1" t="s">
-        <v>546</v>
       </c>
       <c r="J1" t="s">
         <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -18274,7 +18343,7 @@
         <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18306,10 +18375,10 @@
         <v>123</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -18342,34 +18411,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" t="s">
         <v>548</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>549</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>550</v>
-      </c>
-      <c r="G1" t="s">
-        <v>551</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" t="s">
         <v>552</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>553</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>554</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>555</v>
-      </c>
-      <c r="M1" t="s">
-        <v>556</v>
       </c>
       <c r="N1" t="s">
         <v>361</v>
@@ -18378,19 +18447,19 @@
         <v>362</v>
       </c>
       <c r="P1" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q1" t="s">
         <v>557</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>558</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>559</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>560</v>
-      </c>
-      <c r="T1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -18407,7 +18476,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>121</v>
@@ -18469,7 +18538,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>121</v>
@@ -18550,10 +18619,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
@@ -18579,10 +18648,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18599,10 +18668,10 @@
         <v>123</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18619,10 +18688,10 @@
         <v>123</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18639,10 +18708,10 @@
         <v>123</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.35">
@@ -18659,10 +18728,10 @@
         <v>123</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18679,10 +18748,10 @@
         <v>123</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18699,10 +18768,10 @@
         <v>123</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -18719,10 +18788,10 @@
         <v>123</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.35">
@@ -18739,10 +18808,10 @@
         <v>123</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F10" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -18759,15 +18828,15 @@
         <v>123</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -18779,10 +18848,10 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -18795,7 +18864,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18823,19 +18892,19 @@
         <v>344</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -19017,7 +19086,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -19083,16 +19152,16 @@
         <v>344</v>
       </c>
       <c r="E1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" t="s">
         <v>569</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>570</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>571</v>
-      </c>
-      <c r="H1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -19253,7 +19322,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -19878,10 +19947,10 @@
         <v>139</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>140</v>
@@ -19893,7 +19962,7 @@
         <v>141</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>142</v>
@@ -20021,7 +20090,7 @@
         <v>124</v>
       </c>
       <c r="AP4" s="56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20052,7 +20121,7 @@
         <v>124</v>
       </c>
       <c r="AP5" s="56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20081,7 +20150,7 @@
         <v>123</v>
       </c>
       <c r="T6" s="56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y6" s="60"/>
       <c r="AF6" s="61"/>
@@ -20089,7 +20158,7 @@
         <v>124</v>
       </c>
       <c r="AP6" s="56" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20168,40 +20237,40 @@
         <v>66</v>
       </c>
       <c r="Y9" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z9" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AB9" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AC9" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AD9" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AE9" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG9" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="AF9" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AI9" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="AI9" s="6" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="AK9" s="18" t="s">
         <v>66</v>
@@ -20210,10 +20279,10 @@
         <v>66</v>
       </c>
       <c r="AM9" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AN9" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20239,7 +20308,7 @@
         <v>123</v>
       </c>
       <c r="T10" s="73" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y10" s="74"/>
     </row>
@@ -20319,13 +20388,13 @@
         <v>123</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AD13" s="34"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -20572,7 +20641,7 @@
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
       <c r="G3" s="57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21038,7 +21107,7 @@
         <v>121</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>121</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D33A2-6036-431A-A069-83E7F0A7BED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E56F03-96AE-44A3-8EDA-76D0F377C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="671">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2081,6 +2081,9 @@
   </si>
   <si>
     <t>Residential/Home</t>
+  </si>
+  <si>
+    <t>SCR_ID3</t>
   </si>
 </sst>
 </file>
@@ -8618,8 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9248,7 +9251,7 @@
         <v>318</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="I16" s="56" t="s">
         <v>74</v>
@@ -19845,8 +19848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20150,7 +20153,7 @@
         <v>123</v>
       </c>
       <c r="T6" s="56" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="Y6" s="60"/>
       <c r="AF6" s="61"/>
@@ -21180,16 +21183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -21198,7 +21191,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -21415,17 +21408,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -21433,7 +21426,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21450,4 +21443,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\Downloads\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB215805-265B-4C54-91DE-F4223765CEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1231F31-531B-4749-A142-FEFEB4B6271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="672">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -9476,10 +9476,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9859,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>123</v>
@@ -9898,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>123</v>
@@ -9922,7 +9922,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L11" s="45" t="s">
         <v>123</v>
@@ -9937,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>123</v>
@@ -9961,7 +9961,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="L12" s="45" t="s">
         <v>123</v>
@@ -9976,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>123</v>
@@ -10000,7 +10000,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
       <c r="L13" s="45" t="s">
         <v>123</v>
@@ -10015,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>123</v>
@@ -10039,7 +10039,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="L14" s="45" t="s">
         <v>123</v>
@@ -10054,16 +10054,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="56" t="s">
         <v>123</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="G15" s="56" t="s">
         <v>74</v>
@@ -10072,13 +10072,13 @@
         <v>74</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>123</v>
@@ -10093,112 +10093,114 @@
         <v>1</v>
       </c>
       <c r="C16" s="57">
+        <v>7</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="56">
+        <v>1</v>
+      </c>
+      <c r="C17" s="57">
+        <v>8</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="56">
+        <v>1</v>
+      </c>
+      <c r="C18" s="57">
         <v>9</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="56" t="s">
+      <c r="D18" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="H16" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="56" t="s">
+      <c r="H18" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="56" t="s">
         <v>578</v>
       </c>
-      <c r="L16" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="C18" s="29">
-        <v>2</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="45" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10210,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>123</v>
@@ -10234,7 +10236,7 @@
         <v>123</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>123</v>
@@ -10248,264 +10250,259 @@
         <v>1</v>
       </c>
       <c r="C20" s="29">
+        <v>2</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="29">
+        <v>1</v>
+      </c>
+      <c r="C21" s="29">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29">
         <v>4</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="27" t="s">
+      <c r="D22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="L22" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B23" s="27">
+        <v>1</v>
+      </c>
+      <c r="C23" s="29">
         <v>5</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="D23" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="27" t="s">
+      <c r="H23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="L21" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="L23" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="27">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29">
+      <c r="B24" s="27">
+        <v>1</v>
+      </c>
+      <c r="C24" s="29">
         <v>6</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="27" t="s">
+      <c r="D24" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="L22" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="73" t="s">
+      <c r="L24" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="73">
-        <v>1</v>
-      </c>
-      <c r="C23" s="78">
-        <v>1</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="73" t="s">
+      <c r="B25" s="73">
+        <v>1</v>
+      </c>
+      <c r="C25" s="78">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="L23" s="73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73" t="s">
+      <c r="L25" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="73">
-        <v>1</v>
-      </c>
-      <c r="C24" s="78">
+      <c r="B26" s="73">
+        <v>1</v>
+      </c>
+      <c r="C26" s="78">
         <v>2</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="K24" s="73" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="73" t="s">
         <v>577</v>
       </c>
-      <c r="L24" s="73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="29">
-        <v>1</v>
-      </c>
-      <c r="C25" s="29">
-        <v>1</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="27" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="29">
-        <v>1</v>
-      </c>
-      <c r="C26" s="29">
-        <v>2</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="L26" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="45"/>
+      <c r="L26" s="73" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
@@ -10515,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>123</v>
@@ -10557,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>123</v>
@@ -10588,197 +10585,202 @@
       </c>
       <c r="M28" s="45"/>
     </row>
-    <row r="29" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="43" t="s">
+    <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="45"/>
+      <c r="N29" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="29">
+        <v>1</v>
+      </c>
+      <c r="C30" s="29">
+        <v>4</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="45"/>
+    </row>
+    <row r="31" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="43">
-        <v>1</v>
-      </c>
-      <c r="C29" s="43">
-        <v>1</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="45" t="s">
+      <c r="B31" s="43">
+        <v>1</v>
+      </c>
+      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="45" t="s">
+      <c r="I31" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="L29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="N29" s="45" t="s">
+      <c r="L31" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="45" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="43" t="s">
+    <row r="32" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="43">
-        <v>1</v>
-      </c>
-      <c r="C30" s="43">
+      <c r="B32" s="43">
+        <v>1</v>
+      </c>
+      <c r="C32" s="43">
         <v>2</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="45" t="s">
+      <c r="D32" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="K30" s="45" t="s">
+      <c r="I32" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="45" t="s">
         <v>577</v>
       </c>
-      <c r="L30" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="L32" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" t="s">
         <v>489</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K33" t="s">
         <v>576</v>
       </c>
-      <c r="L31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="B32" s="29">
-        <v>1</v>
-      </c>
-      <c r="C32" s="29">
-        <v>1</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="B33" s="29">
-        <v>1</v>
-      </c>
-      <c r="C33" s="29">
-        <v>2</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>123</v>
+      <c r="L33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -10789,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>123</v>
@@ -10813,7 +10815,7 @@
         <v>123</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L34" s="27" t="s">
         <v>123</v>
@@ -10827,33 +10829,109 @@
         <v>1</v>
       </c>
       <c r="C35" s="29">
+        <v>2</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="B36" s="29">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="B37" s="29">
+        <v>1</v>
+      </c>
+      <c r="C37" s="29">
         <v>4</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" s="27" t="s">
+      <c r="D37" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L37" s="27" t="s">
         <v>123</v>
       </c>
     </row>
@@ -17825,8 +17903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18374,7 +18452,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20759,7 +20837,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21795,7 +21873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -23252,16 +23330,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -23478,6 +23546,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -23488,16 +23566,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23516,6 +23584,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\Downloads\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1231F31-531B-4749-A142-FEFEB4B6271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEFC707-E245-4538-8050-C58A2EFFB852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="12" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5114" uniqueCount="672">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3156,11 +3156,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DH18"/>
+  <dimension ref="A1:DH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7277,7 +7277,7 @@
       <c r="DG16" s="51"/>
       <c r="DH16" s="51"/>
     </row>
-    <row r="17" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>645</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:100" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:112" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="75" t="s">
         <v>9</v>
       </c>
@@ -7727,15 +7727,332 @@
       <c r="BS18" s="76"/>
       <c r="BT18" s="76"/>
     </row>
+    <row r="19" spans="1:112" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="CP19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX19" s="29"/>
+      <c r="CY19" s="29"/>
+      <c r="CZ19" s="29"/>
+      <c r="DA19" s="29"/>
+      <c r="DB19" s="29"/>
+      <c r="DC19" s="29"/>
+      <c r="DD19" s="29"/>
+      <c r="DE19" s="29"/>
+      <c r="DF19" s="29"/>
+      <c r="DG19" s="29"/>
+      <c r="DH19" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="U17" r:id="rId1" xr:uid="{104CDFBD-7D0C-4320-BB7C-C7FCC3FEE0FA}"/>
     <hyperlink ref="U8" r:id="rId2" xr:uid="{F67BA83A-898E-4565-84CF-6F7F8525DBF2}"/>
     <hyperlink ref="U10" r:id="rId3" xr:uid="{7F9C818D-DC01-43C9-B7E0-E8DACDA00BF4}"/>
+    <hyperlink ref="U19" r:id="rId4" xr:uid="{1A2F1C83-080A-4D16-86A2-8A4C808468B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9478,8 +9795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12807,8 +13124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19674,7 +19991,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20549,7 +20866,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20836,8 +21153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20847,6 +21164,7 @@
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -21125,7 +21443,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21874,7 +22192,7 @@
   <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22138,16 +22456,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S5" s="56" t="s">
         <v>123</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suponugupati\Downloads\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEFC707-E245-4538-8050-C58A2EFFB852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8FDDE8-E222-43D7-988E-BB4EB1E10D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5114" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="672">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3158,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -9793,10 +9793,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>6</v>
       </c>
@@ -10451,36 +10451,46 @@
       <c r="C17" s="57">
         <v>8</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>578</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+    </row>
+    <row r="18" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56" t="s">
         <v>6</v>
       </c>
@@ -10521,7 +10531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>5</v>
       </c>
@@ -10559,7 +10569,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>5</v>
       </c>
@@ -10597,7 +10607,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>5</v>
       </c>
@@ -10635,7 +10645,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
         <v>5</v>
       </c>
@@ -10673,7 +10683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>5</v>
       </c>
@@ -10711,7 +10721,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>5</v>
       </c>
@@ -10749,7 +10759,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="73" t="s">
         <v>9</v>
       </c>
@@ -10785,7 +10795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="73" t="s">
         <v>9</v>
       </c>
@@ -10821,7 +10831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>4</v>
       </c>
@@ -10863,7 +10873,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
         <v>4</v>
       </c>
@@ -10902,7 +10912,7 @@
       </c>
       <c r="M28" s="45"/>
     </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>4</v>
       </c>
@@ -10944,7 +10954,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>4</v>
       </c>
@@ -10983,7 +10993,7 @@
       </c>
       <c r="M30" s="45"/>
     </row>
-    <row r="31" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
         <v>104</v>
       </c>
@@ -11024,7 +11034,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
         <v>104</v>
       </c>
@@ -18768,8 +18778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18790,6 +18800,7 @@
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.54296875" customWidth="1"/>
     <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.54296875" customWidth="1"/>
     <col min="24" max="24" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19820,8 +19831,79 @@
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X16" s="1"/>
+    <row r="16" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="17" spans="24:24" x14ac:dyDescent="0.35">
       <c r="X17" s="1"/>
@@ -20534,7 +20616,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
